--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P35_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P35_trail7 Features.xlsx
@@ -3374,7 +3374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3385,29 +3385,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3428,115 +3426,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3553,72 +3541,66 @@
         <v>2.559993625959517e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.338913085071424</v>
+        <v>1.475439619792192e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3.123620086379645</v>
+        <v>2.984749129599426e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.475439619792192e-06</v>
+        <v>0.09612148318257117</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.984749129599426e-06</v>
+        <v>0.235183535559521</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.09612148318257117</v>
+        <v>0.0644701050739262</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.235183535559521</v>
+        <v>1.544272078047023</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.0644701050739262</v>
+        <v>1.460648864307848</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.461734145327272</v>
+        <v>4.210098508961709</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.460648864307848</v>
+        <v>1.283022385844404e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.210098508961709</v>
+        <v>17243903.14211965</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.283022385844404e-14</v>
+        <v>5.930809276169304e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>17243903.14211965</v>
+        <v>3.815095234024565</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5.930809276169304e-06</v>
+        <v>0.0001243238624449349</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>3.815095234024565</v>
+        <v>11.12528870957985</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001243238624449349</v>
+        <v>1.462539444135439</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>11.12528870957985</v>
+        <v>0.01538781917842874</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.462539444135439</v>
+        <v>3.190419637233703</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01538781917842874</v>
+        <v>0.941322622142479</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.190419637233703</v>
+        <v>1.868018492281939</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.941322622142479</v>
+        <v>5</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.868018492281939</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2064937460440109</v>
       </c>
     </row>
@@ -3633,72 +3615,66 @@
         <v>2.253282816533839e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.7645889943690934</v>
+        <v>1.218169235354255e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.154646818300515</v>
+        <v>3.007145841570741e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.218169235354255e-06</v>
+        <v>0.09016123216247489</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.007145841570741e-06</v>
+        <v>0.2282436246052942</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.09016123216247489</v>
+        <v>0.06015163589408156</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2282436246052942</v>
+        <v>1.541259526942616</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.06015163589408156</v>
+        <v>1.455750657320066</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.456860432271922</v>
+        <v>3.958259842717463</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.455750657320066</v>
+        <v>1.451476966958587e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.958259842717463</v>
+        <v>15382071.23626287</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.451476966958587e-14</v>
+        <v>6.660743292512167e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>15382071.23626287</v>
+        <v>3.434312298690777</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>6.660743292512167e-06</v>
+        <v>0.0001193667994445275</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>3.434312298690777</v>
+        <v>12.49689036737907</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001193667994445275</v>
+        <v>1.256561508427636</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>12.49689036737907</v>
+        <v>0.01864178389512706</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.256561508427636</v>
+        <v>3.029908749799797</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01864178389512706</v>
+        <v>0.941871938335936</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.029908749799797</v>
+        <v>1.870780787374223</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.941871938335936</v>
+        <v>5</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.870780787374223</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2179265088256112</v>
       </c>
     </row>
@@ -3713,72 +3689,66 @@
         <v>2.057987367257724e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.3082479649868893</v>
+        <v>1.002733288139446e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.2558581780473785</v>
+        <v>3.025575655873762e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.002733288139446e-06</v>
+        <v>0.08101740921460138</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.025575655873762e-06</v>
+        <v>0.2173778098461236</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.08101740921460138</v>
+        <v>0.05376001859799464</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2173778098461236</v>
+        <v>1.544457260580361</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.05376001859799464</v>
+        <v>1.456758969534504</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.459875852148</v>
+        <v>3.869167783617274</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.456758969534504</v>
+        <v>1.519090414352965e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.869167783617274</v>
+        <v>15267231.48625039</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.519090414352965e-14</v>
+        <v>6.804455720440864e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>15267231.48625039</v>
+        <v>3.54082289202978</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>6.804455720440864e-06</v>
+        <v>0.0001060295176677805</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>3.54082289202978</v>
+        <v>9.632768097582225</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001060295176677805</v>
+        <v>1.319666814435776</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.632768097582225</v>
+        <v>0.009838502400433883</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.319666814435776</v>
+        <v>3.124930796268419</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.009838502400433883</v>
+        <v>0.9406443343980349</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.124930796268419</v>
+        <v>1.881359137275765</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9406443343980349</v>
+        <v>5</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.881359137275765</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2103492005197203</v>
       </c>
     </row>
@@ -3793,72 +3763,66 @@
         <v>1.944924567440093e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.045303214526015</v>
+        <v>8.252113502544187e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.9841256647055632</v>
+        <v>3.040650293633567e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>8.252113502544187e-07</v>
+        <v>0.06980537018971343</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.040650293633567e-06</v>
+        <v>0.2036458940752857</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.06980537018971343</v>
+        <v>0.04629984222521023</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2036458940752857</v>
+        <v>1.521959139655132</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04629984222521023</v>
+        <v>1.446448411101166</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.4365012377223</v>
+        <v>3.864193579538834</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.446448411101166</v>
+        <v>1.523003846224801e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.864193579538834</v>
+        <v>15221166.8567023</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.523003846224801e-14</v>
+        <v>6.777886172430601e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>15221166.8567023</v>
+        <v>3.5285550199883</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>6.777886172430601e-06</v>
+        <v>0.0001106357697798828</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>3.5285550199883</v>
+        <v>7.680192144240999</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001106357697798828</v>
+        <v>1.305523093947064</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.680192144240999</v>
+        <v>0.006525889754829106</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.305523093947064</v>
+        <v>3.177943544269979</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.006525889754829106</v>
+        <v>0.9389913082022462</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.177943544269979</v>
+        <v>1.873033719866221</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9389913082022462</v>
+        <v>8</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.873033719866221</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.198729615075753</v>
       </c>
     </row>
@@ -3873,72 +3837,66 @@
         <v>1.889974960991791e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.04059340634955103</v>
+        <v>6.76613859640711e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.230340883920978</v>
+        <v>3.052886299176601e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6.76613859640711e-07</v>
+        <v>0.05819087155960917</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.052886299176601e-06</v>
+        <v>0.1880682772622265</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.05819087155960917</v>
+        <v>0.03872228842671168</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1880682772622265</v>
+        <v>1.517292519559766</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03872228842671168</v>
+        <v>1.442698583982287</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.428555376664356</v>
+        <v>3.856198650288914</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.442698583982287</v>
+        <v>1.52932557986554e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.856198650288914</v>
+        <v>15486219.48471962</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.52932557986554e-14</v>
+        <v>6.692699131589672e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>15486219.48471962</v>
+        <v>3.667674392554198</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>6.692699131589672e-06</v>
+        <v>0.0001208950988765435</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>3.667674392554198</v>
+        <v>7.246905456234335</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001208950988765435</v>
+        <v>1.577932028698285</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.246905456234335</v>
+        <v>0.006349125122383445</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.577932028698285</v>
+        <v>3.222131644197133</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.006349125122383445</v>
+        <v>0.9382002807371482</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.222131644197133</v>
+        <v>1.869054875059484</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9382002807371482</v>
+        <v>8</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.869054875059484</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1840407558974697</v>
       </c>
     </row>
@@ -3953,72 +3911,66 @@
         <v>1.874698540941797e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.02168155382163438</v>
+        <v>5.782634443909125e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.27034575564824</v>
+        <v>3.06279242813712e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.782634443909125e-07</v>
+        <v>0.04748079802422377</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.06279242813712e-06</v>
+        <v>0.1709659154917692</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.04748079802422377</v>
+        <v>0.03145634115639138</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1709659154917692</v>
+        <v>1.523081533511387</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03145634115639138</v>
+        <v>1.440132303674925</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.427617559932861</v>
+        <v>3.776808788361936</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.440132303674925</v>
+        <v>1.594295254068648e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.776808788361936</v>
+        <v>15274756.66653892</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.594295254068648e-14</v>
+        <v>6.866233840059528e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>15274756.66653892</v>
+        <v>3.719780849530761</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>6.866233840059528e-06</v>
+        <v>0.0001353795735914083</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>3.719780849530761</v>
+        <v>9.080016618929353</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001353795735914083</v>
+        <v>1.605292193163838</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.080016618929353</v>
+        <v>0.0111615993337065</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.605292193163838</v>
+        <v>3.186211849676233</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0111615993337065</v>
+        <v>0.9372019643347425</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.186211849676233</v>
+        <v>1.903447970609991</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9372019643347425</v>
+        <v>8</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.903447970609991</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1749375539575975</v>
       </c>
     </row>
@@ -4033,72 +3985,66 @@
         <v>1.886507732445516e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.03104850366100504</v>
+        <v>5.832079460481102e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.272440472122959</v>
+        <v>3.070877973718609e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>5.832079460481102e-07</v>
+        <v>0.03940721366077055</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.070877973718609e-06</v>
+        <v>0.1559294887801935</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.03940721366077055</v>
+        <v>0.02585183529807359</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1559294887801935</v>
+        <v>1.516251146196403</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02585183529807359</v>
+        <v>1.436849072933289</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.417878025061281</v>
+        <v>3.743693781793181</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.436849072933289</v>
+        <v>1.760586228833397e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.743693781793181</v>
+        <v>13915043.90844284</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.760586228833397e-14</v>
+        <v>7.530858112059655e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>13915043.90844284</v>
+        <v>3.408995772526321</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>7.530858112059655e-06</v>
+        <v>0.0001492994543310526</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>3.408995772526321</v>
+        <v>11.85762663859974</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001492994543310526</v>
+        <v>1.299183890067619</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>11.85762663859974</v>
+        <v>0.02099199738555433</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.299183890067619</v>
+        <v>3.012875474984662</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02099199738555433</v>
+        <v>0.9355537081569788</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.012875474984662</v>
+        <v>1.882505540352333</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9355537081569788</v>
+        <v>8</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.882505540352333</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1723753068150698</v>
       </c>
     </row>
@@ -4113,72 +4059,66 @@
         <v>1.915811748407105e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.07392157262225955</v>
+        <v>6.215710445744651e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.281551743223492</v>
+        <v>3.078006006018023e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>6.215710445744651e-07</v>
+        <v>0.03658501125448524</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.078006006018023e-06</v>
+        <v>0.1499614391851021</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.03658501125448524</v>
+        <v>0.02382044486465852</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1499614391851021</v>
+        <v>1.473184672618445</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02382044486465852</v>
+        <v>1.413193554931009</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.379507118787207</v>
+        <v>3.661080354772173</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.413193554931009</v>
+        <v>1.877737487667846e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.661080354772173</v>
+        <v>13109852.00770347</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.877737487667846e-14</v>
+        <v>7.728003351926182e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>13109852.00770347</v>
+        <v>3.227233990016122</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>7.728003351926182e-06</v>
+        <v>0.0001326794850595445</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>3.227233990016122</v>
+        <v>12.03479601750749</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001326794850595445</v>
+        <v>1.130775969249651</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>12.03479601750749</v>
+        <v>0.01921680771640421</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.130775969249651</v>
+        <v>2.935490966355317</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01921680771640421</v>
+        <v>0.9324999995907074</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.935490966355317</v>
+        <v>1.844728991054888</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9324999995907074</v>
+        <v>8</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.844728991054888</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.180324884068493</v>
       </c>
     </row>
@@ -4193,72 +4133,66 @@
         <v>1.958001060771916e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.094981776868375</v>
+        <v>6.665032935237182e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.280927107835823</v>
+        <v>3.085140187624919e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>6.665032935237182e-07</v>
+        <v>0.03752247505327716</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.085140187624919e-06</v>
+        <v>0.1482654326441304</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.03752247505327716</v>
+        <v>0.02338724788694558</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1482654326441304</v>
+        <v>1.458130767440948</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.02338724788694558</v>
+        <v>1.393889641780309</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.366138078249874</v>
+        <v>3.733993238108271</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.393889641780309</v>
+        <v>1.805121107609626e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.733993238108271</v>
+        <v>13867742.47767909</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.805121107609626e-14</v>
+        <v>7.271030300815331e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>13867742.47767909</v>
+        <v>3.471505686990616</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>7.271030300815331e-06</v>
+        <v>0.0001339171547596015</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>3.471505686990616</v>
+        <v>10.20351558055897</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001339171547596015</v>
+        <v>1.192956693973204</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>10.20351558055897</v>
+        <v>0.01394234668584615</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.192956693973204</v>
+        <v>2.984711648330105</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01394234668584615</v>
+        <v>0.9297401408075052</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.984711648330105</v>
+        <v>1.902146280045976</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9297401408075052</v>
+        <v>10</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.902146280045976</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1725588352178898</v>
       </c>
     </row>
@@ -4273,72 +4207,66 @@
         <v>2.010518601771941e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.09677571047013973</v>
+        <v>7.120780820913112e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.256053533116265</v>
+        <v>3.092822133828185e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>7.120780820913112e-07</v>
+        <v>0.04015811924604398</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.092822133828185e-06</v>
+        <v>0.1463499917767939</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.04015811924604398</v>
+        <v>0.02302772686371813</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1463499917767939</v>
+        <v>1.440375794471808</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.02302772686371813</v>
+        <v>1.378442437683673</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.34887094714894</v>
+        <v>3.936667680774712</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.378442437683673</v>
+        <v>1.624036887256418e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.936667680774712</v>
+        <v>15742605.81207276</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.624036887256418e-14</v>
+        <v>6.336798282533917e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>15742605.81207276</v>
+        <v>4.024844734683906</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>6.336798282533917e-06</v>
+        <v>0.0001467380222968255</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>4.024844734683906</v>
+        <v>9.015318156957752</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001467380222968255</v>
+        <v>1.359380357831049</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.015318156957752</v>
+        <v>0.01192627384655279</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.359380357831049</v>
+        <v>3.006261882698899</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01192627384655279</v>
+        <v>0.9284740427928048</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.006261882698899</v>
+        <v>1.897815623941777</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9284740427928048</v>
+        <v>13</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.897815623941777</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1613993931473746</v>
       </c>
     </row>
@@ -4353,72 +4281,66 @@
         <v>2.071985528757866e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.08306743752389945</v>
+        <v>7.537375180793704e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.202414827189927</v>
+        <v>3.101327846020401e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>7.537375180793704e-07</v>
+        <v>0.04311911946174472</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.101327846020401e-06</v>
+        <v>0.1430393575617392</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.04311911946174472</v>
+        <v>0.02231749157755112</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1430393575617392</v>
+        <v>1.445889193898853</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.02231749157755112</v>
+        <v>1.487254998142401</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.352252340060935</v>
+        <v>4.002221680950034</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.487254998142401</v>
+        <v>1.571271083713694e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.002221680950034</v>
+        <v>15640603.55685792</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.571271083713694e-14</v>
+        <v>6.338992753508787e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>15640603.55685792</v>
+        <v>3.84377656284145</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>6.338992753508787e-06</v>
+        <v>0.0001691980111567721</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>3.84377656284145</v>
+        <v>8.845283100793539</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001691980111567721</v>
+        <v>1.530179689439246</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.845283100793539</v>
+        <v>0.01323788880096348</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.530179689439246</v>
+        <v>2.962249245392323</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01323788880096348</v>
+        <v>0.9306575413688402</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.962249245392323</v>
+        <v>1.872309243847953</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9306575413688402</v>
+        <v>13</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.872309243847953</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.149047184349956</v>
       </c>
     </row>
@@ -4433,72 +4355,66 @@
         <v>2.137785891943542e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.06461343060319735</v>
+        <v>7.781749823641675e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.13565333955941</v>
+        <v>3.11063609563849e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>7.781749823641675e-07</v>
+        <v>0.04500183763375175</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.11063609563849e-06</v>
+        <v>0.1381138617261646</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.04500183763375175</v>
+        <v>0.02110019489253013</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1381138617261646</v>
+        <v>1.420682559191303</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02110019489253013</v>
+        <v>1.481354319131692</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.331968395054493</v>
+        <v>3.804422498526766</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.481354319131692</v>
+        <v>1.997913448075544e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.804422498526766</v>
+        <v>12527888.3017593</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.997913448075544e-14</v>
+        <v>7.759916193552994e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>12527888.3017593</v>
+        <v>3.13568490481945</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>7.759916193552994e-06</v>
+        <v>0.000197890098856959</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>3.13568490481945</v>
+        <v>9.920390986915807</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.000197890098856959</v>
+        <v>1.484868167690826</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.920390986915807</v>
+        <v>0.01947518732360717</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.484868167690826</v>
+        <v>2.839263523797081</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01947518732360717</v>
+        <v>0.9247779018235232</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.839263523797081</v>
+        <v>1.898864946700189</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9247779018235232</v>
+        <v>9</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.898864946700189</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1372820001217228</v>
       </c>
     </row>
@@ -4513,72 +4429,66 @@
         <v>2.198546911735978e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.05979393631918021</v>
+        <v>7.797792451095168e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.087426081651516</v>
+        <v>3.120426905414542e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>7.797792451095168e-07</v>
+        <v>0.04495894901860107</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.120426905414542e-06</v>
+        <v>0.1334585019308617</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.04495894901860107</v>
+        <v>0.01983163893769433</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1334585019308617</v>
+        <v>1.432007231101153</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01983163893769433</v>
+        <v>1.386947317850385</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.345908915918592</v>
+        <v>3.60607237730421</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.386947317850385</v>
+        <v>2.325062249168099e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.60607237730421</v>
+        <v>11038645.60764806</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.325062249168099e-14</v>
+        <v>8.855653392148574e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>11038645.60764806</v>
+        <v>2.833127803459113</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>8.855653392148574e-06</v>
+        <v>0.0002013875082018861</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>2.833127803459113</v>
+        <v>12.36172903920553</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0002013875082018861</v>
+        <v>1.151628226595277</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>12.36172903920553</v>
+        <v>0.03077449734956062</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.151628226595277</v>
+        <v>2.684157862019255</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.03077449734956062</v>
+        <v>0.9249359585680654</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.684157862019255</v>
+        <v>1.884179084562324</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9249359585680654</v>
+        <v>9</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.884179084562324</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1403478727325412</v>
       </c>
     </row>
@@ -4593,72 +4503,66 @@
         <v>2.245402398939297e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.07954281980780874</v>
+        <v>7.797792451095168e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.067902710726566</v>
+        <v>3.130309766595404e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>7.797792451095168e-07</v>
+        <v>0.04386069866213378</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.130309766595404e-06</v>
+        <v>0.13087334350601</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.04386069866213378</v>
+        <v>0.01904994406029567</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.13087334350601</v>
+        <v>1.446124672417278</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01904994406029567</v>
+        <v>1.438537112623577</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.357187477441717</v>
+        <v>3.647384732267491</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.438537112623577</v>
+        <v>2.272690577968541e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.647384732267491</v>
+        <v>11009739.59091951</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.272690577968541e-14</v>
+        <v>9.076357103213569e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>11009739.59091951</v>
+        <v>2.754827472041366</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>9.076357103213569e-06</v>
+        <v>0.0002070243360428905</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>2.754827472041366</v>
+        <v>13.84979930115619</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0002070243360428905</v>
+        <v>1.010274624017374</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>13.84979930115619</v>
+        <v>0.03971077478653302</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.010274624017374</v>
+        <v>2.478804071232918</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.03971077478653302</v>
+        <v>0.9287339623783833</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.478804071232918</v>
+        <v>1.867494541635271</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9287339623783833</v>
+        <v>8</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.867494541635271</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.144439752295885</v>
       </c>
     </row>
@@ -4673,72 +4577,66 @@
         <v>2.275435287577846e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.119809993952513</v>
+        <v>7.797792451095168e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.05812795151898</v>
+        <v>3.140128954839336e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>7.797792451095168e-07</v>
+        <v>0.04304284694881391</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.140128954839336e-06</v>
+        <v>0.1294466843934954</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.04304284694881391</v>
+        <v>0.01860765843543124</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1294466843934954</v>
+        <v>1.460582119689945</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01860765843543124</v>
+        <v>1.373968124221501</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.367490129164114</v>
+        <v>3.812329759689341</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.373968124221501</v>
+        <v>2.080283596529222e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.812329759689341</v>
+        <v>12162123.03072955</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.080283596529222e-14</v>
+        <v>8.463842080453553e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>12162123.03072955</v>
+        <v>3.077098009732884</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>8.463842080453553e-06</v>
+        <v>0.0001907892484430271</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>3.077098009732884</v>
+        <v>11.95634194284027</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001907892484430271</v>
+        <v>1.12977767178893</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>11.95634194284027</v>
+        <v>0.02727410771511968</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.12977767178893</v>
+        <v>2.669655985170325</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.02727410771511968</v>
+        <v>0.9260269862213467</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.669655985170325</v>
+        <v>1.891014300657301</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9260269862213467</v>
+        <v>9</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.891014300657301</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1433009911014775</v>
       </c>
     </row>
@@ -4753,72 +4651,66 @@
         <v>2.289916700684889e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.1715025715851924</v>
+        <v>7.797792451095168e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.039667478530677</v>
+        <v>3.149956029590996e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>7.797792451095168e-07</v>
+        <v>0.043166957917059</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.149956029590996e-06</v>
+        <v>0.1281940366587825</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.043166957917059</v>
+        <v>0.01829623507900264</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1281940366587825</v>
+        <v>1.473564241750314</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01829623507900264</v>
+        <v>1.44387699566879</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.380278548034323</v>
+        <v>3.844897730501003</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.44387699566879</v>
+        <v>2.045191023742912e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.844897730501003</v>
+        <v>12395441.4521948</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.045191023742912e-14</v>
+        <v>8.34250997822412e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>12395441.4521948</v>
+        <v>3.142374014044101</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>8.34250997822412e-06</v>
+        <v>0.000179260438596057</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>3.142374014044101</v>
+        <v>9.099769094651586</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.000179260438596057</v>
+        <v>1.455911262392665</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.099769094651586</v>
+        <v>0.0148438035917658</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.455911262392665</v>
+        <v>2.856579658576071</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.0148438035917658</v>
+        <v>0.9279790470503728</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.856579658576071</v>
+        <v>1.870877676812493</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9279790470503728</v>
+        <v>9</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.870877676812493</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1415174819279137</v>
       </c>
     </row>
@@ -5195,7 +5087,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.365152945934348</v>
+        <v>1.395923235982913</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.8592806741143</v>
@@ -5284,7 +5176,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.386664652753743</v>
+        <v>1.418060946719534</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.854604149850234</v>
@@ -5373,7 +5265,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.380034926527908</v>
+        <v>1.405043651693861</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.802029270049553</v>
@@ -5462,7 +5354,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.38923751378434</v>
+        <v>1.415479024270953</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.847033275341041</v>
@@ -5551,7 +5443,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.479580789370629</v>
+        <v>1.495920934894517</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.88902854514615</v>
@@ -5640,7 +5532,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.545841551270057</v>
+        <v>1.557268514403067</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.636283846233345</v>
@@ -5729,7 +5621,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.560841472819459</v>
+        <v>1.567734264110739</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.751266282893868</v>
@@ -5818,7 +5710,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.515737622712928</v>
+        <v>1.521346575982536</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.699791248657526</v>
@@ -5907,7 +5799,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.557099347369573</v>
+        <v>1.56138695107568</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.429537109457918</v>
@@ -5996,7 +5888,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.587797265818019</v>
+        <v>1.59016822541929</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.597762795063748</v>
@@ -6085,7 +5977,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.569096439453929</v>
+        <v>1.572863300292803</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.53707817250469</v>
@@ -6174,7 +6066,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.557154369884976</v>
+        <v>1.561299617329954</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.574169350447735</v>
@@ -6263,7 +6155,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.533450183339511</v>
+        <v>1.53256583134908</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.592837429333414</v>
@@ -6352,7 +6244,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.552657265737542</v>
+        <v>1.550511859784266</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.573707213670266</v>
@@ -6441,7 +6333,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.529995981777469</v>
+        <v>1.526847716764496</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.578494930865109</v>
@@ -6530,7 +6422,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.511274584925811</v>
+        <v>1.50730829557559</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.593591837459245</v>
@@ -6619,7 +6511,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.48346938084349</v>
+        <v>1.480606947234727</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.513038330257763</v>
@@ -6708,7 +6600,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.49628368939085</v>
+        <v>1.496135633528441</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.330953593988272</v>
@@ -6797,7 +6689,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.479069249518989</v>
+        <v>1.477727030446838</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.216228113066506</v>
@@ -6886,7 +6778,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.344716458021344</v>
+        <v>1.342857463118593</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.625961146608806</v>
@@ -6975,7 +6867,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.293653771611589</v>
+        <v>1.300852825721763</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.627885204214948</v>
@@ -7064,7 +6956,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.276614875878743</v>
+        <v>1.284994878171901</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.604143105355659</v>
@@ -7153,7 +7045,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.29237338511333</v>
+        <v>1.301424514092682</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.605088819748157</v>
@@ -7242,7 +7134,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.293494253944134</v>
+        <v>1.307047569954584</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.618416663620382</v>
@@ -7331,7 +7223,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.289830049075587</v>
+        <v>1.299422305115667</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.617164429445159</v>
@@ -7420,7 +7312,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.278529477619766</v>
+        <v>1.284832972532223</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.607663357748712</v>
@@ -7509,7 +7401,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.27126548173169</v>
+        <v>1.276322530823165</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.616602091039683</v>
@@ -7598,7 +7490,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.275339200236993</v>
+        <v>1.282250510051472</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.6156000059704</v>
@@ -7687,7 +7579,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.269465380012872</v>
+        <v>1.278666110626133</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.637903448916646</v>
@@ -7776,7 +7668,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.274614065170112</v>
+        <v>1.287040568042742</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.637492303668888</v>
@@ -7865,7 +7757,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.292463112728253</v>
+        <v>1.305611647285102</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.63498233910105</v>
@@ -7954,7 +7846,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.306475281287022</v>
+        <v>1.322380434872625</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.64349046661114</v>
@@ -8043,7 +7935,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.296858581071947</v>
+        <v>1.311790642848276</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.65545738422257</v>
@@ -8132,7 +8024,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.295193261516635</v>
+        <v>1.310395159516045</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.649634326556711</v>
@@ -8221,7 +8113,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.404387374068784</v>
+        <v>1.418731147396551</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.808159116062038</v>
@@ -8310,7 +8202,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.440570003122821</v>
+        <v>1.449946315486421</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.449886768817985</v>
@@ -8399,7 +8291,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.450810126140144</v>
+        <v>1.457798157193162</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.464453843274847</v>
@@ -8488,7 +8380,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.445424861874569</v>
+        <v>1.45326930919873</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.439810574858936</v>
@@ -8577,7 +8469,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.433631922617809</v>
+        <v>1.437487314974067</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.40255454773938</v>
@@ -8666,7 +8558,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.440482745828915</v>
+        <v>1.448608949133187</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.500557545260532</v>
@@ -8755,7 +8647,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.461641408287716</v>
+        <v>1.467720466290475</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.522049631468928</v>
@@ -8844,7 +8736,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.448903240814216</v>
+        <v>1.460556099659063</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.458434065178435</v>
@@ -8933,7 +8825,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.437330893196295</v>
+        <v>1.448533255587636</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.352063086655561</v>
@@ -9022,7 +8914,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.447854288806158</v>
+        <v>1.448482450261866</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.420247058856547</v>
@@ -9111,7 +9003,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.433187265074471</v>
+        <v>1.432961779916214</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.533770521737465</v>
@@ -9200,7 +9092,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.422647957090523</v>
+        <v>1.421581293112087</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.501047095652865</v>
@@ -9289,7 +9181,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.417168526819052</v>
+        <v>1.412288827788061</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.443363288394541</v>
@@ -9378,7 +9270,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.445214301690331</v>
+        <v>1.440193628835044</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.523266075799449</v>
@@ -9467,7 +9359,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.461184995469297</v>
+        <v>1.453454493979051</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.436486002638115</v>
@@ -9556,7 +9448,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.436476228930873</v>
+        <v>1.434526285614337</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.424144478338842</v>
@@ -9645,7 +9537,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.438707126278766</v>
+        <v>1.43716151970665</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.406676058268633</v>
@@ -9734,7 +9626,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.462302783425205</v>
+        <v>1.466854087595738</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.390909827147202</v>
@@ -9823,7 +9715,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.375523061945364</v>
+        <v>1.380349363120754</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.751439756153787</v>
@@ -9912,7 +9804,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.37617746463995</v>
+        <v>1.382186252066557</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.777290760222903</v>
@@ -10001,7 +9893,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.373244405771666</v>
+        <v>1.381335359242173</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.81619335654788</v>
@@ -10090,7 +9982,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.382074372859377</v>
+        <v>1.391112228702711</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.819084165161601</v>
@@ -10179,7 +10071,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.378851713271465</v>
+        <v>1.38593197241481</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.833075464176811</v>
@@ -10268,7 +10160,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.379562093153745</v>
+        <v>1.391628428473319</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.843857268996484</v>
@@ -10357,7 +10249,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.380428311925767</v>
+        <v>1.392060327769098</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.8471423446547</v>
@@ -10446,7 +10338,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.370847147736216</v>
+        <v>1.383532677319016</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.854217627443109</v>
@@ -10535,7 +10427,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.373187637325603</v>
+        <v>1.386302770315034</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.854165071360082</v>
@@ -10821,7 +10713,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.666530976721523</v>
+        <v>1.660714357983739</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.214258494975359</v>
@@ -10910,7 +10802,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.671961557647859</v>
+        <v>1.67168191095459</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.190098944364331</v>
@@ -10999,7 +10891,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.669309507913026</v>
+        <v>1.659782355345887</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.780191026420518</v>
@@ -11088,7 +10980,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.645652218169522</v>
+        <v>1.617424833645954</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.754590365265222</v>
@@ -11177,7 +11069,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.665987742858132</v>
+        <v>1.627552108726466</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.669957842574147</v>
@@ -11266,7 +11158,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.674609601840072</v>
+        <v>1.62782580100002</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.739994302207182</v>
@@ -11355,7 +11247,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.698887225956142</v>
+        <v>1.64593317297546</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.12933721635837</v>
@@ -11444,7 +11336,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.670511671028384</v>
+        <v>1.628217306864968</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.081548717755106</v>
@@ -11533,7 +11425,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.686638549237169</v>
+        <v>1.639243518353352</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.09015998879623</v>
@@ -11622,7 +11514,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.660351115880685</v>
+        <v>1.60290137794573</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.566787877923574</v>
@@ -11711,7 +11603,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.656610237320766</v>
+        <v>1.589519951115435</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.050799324798976</v>
@@ -11800,7 +11692,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.66545946086339</v>
+        <v>1.602607296547436</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.163392049555336</v>
@@ -11889,7 +11781,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.65265910460715</v>
+        <v>1.592122945620543</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.173545387737658</v>
@@ -11978,7 +11870,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.668297426753724</v>
+        <v>1.607456988120287</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.242824647519861</v>
@@ -12067,7 +11959,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.660265948756902</v>
+        <v>1.605255377257439</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.257711029177602</v>
@@ -12156,7 +12048,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.647410108096247</v>
+        <v>1.592067833378305</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.207562066710979</v>
@@ -12245,7 +12137,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.629118877364043</v>
+        <v>1.578172285442265</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.210402827234966</v>
@@ -12334,7 +12226,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.637293337148679</v>
+        <v>1.586608364201892</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.047167666467208</v>
@@ -12423,7 +12315,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.639203311159537</v>
+        <v>1.596132719872447</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.90068136826434</v>
@@ -12512,7 +12404,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.613311995950814</v>
+        <v>1.583764162828008</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.641289702900673</v>
@@ -12601,7 +12493,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.617464765236594</v>
+        <v>1.594413234254227</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.621536203405217</v>
@@ -12690,7 +12582,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.625547839925785</v>
+        <v>1.603074335830878</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.811575374263231</v>
@@ -12779,7 +12671,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.643361036810579</v>
+        <v>1.619414646097473</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.836331136478374</v>
@@ -12868,7 +12760,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.648370545136908</v>
+        <v>1.625299046582954</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.800364666575612</v>
@@ -12957,7 +12849,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.661802462099715</v>
+        <v>1.636261589209785</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.742674681693156</v>
@@ -13046,7 +12938,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.653585866730792</v>
+        <v>1.630646211181266</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.786455339039093</v>
@@ -13135,7 +13027,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.647461250635808</v>
+        <v>1.620582329153741</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.806722248329519</v>
@@ -13224,7 +13116,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.660100825874516</v>
+        <v>1.637232826773026</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.95368079488259</v>
@@ -13313,7 +13205,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.65943504078277</v>
+        <v>1.636026590716962</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.830483739366741</v>
@@ -13402,7 +13294,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.665972976790988</v>
+        <v>1.640578323193867</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.987846313533074</v>
@@ -13491,7 +13383,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.668700475207433</v>
+        <v>1.644062533744998</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.995359880946957</v>
@@ -13580,7 +13472,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.686352627984322</v>
+        <v>1.659910520076846</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.008837312303146</v>
@@ -13669,7 +13561,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.67608086861916</v>
+        <v>1.65067906652911</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.907169625291094</v>
@@ -13758,7 +13650,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.67777727926174</v>
+        <v>1.653436237788907</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.991894881524022</v>
@@ -13847,7 +13739,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.703223349850595</v>
+        <v>1.672821586286098</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.006869683246283</v>
@@ -13936,7 +13828,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.698295182333653</v>
+        <v>1.658895100995988</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.880306625397957</v>
@@ -14025,7 +13917,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.712153509359094</v>
+        <v>1.662182773561597</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.975070857274768</v>
@@ -14114,7 +14006,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.706971556841353</v>
+        <v>1.658517745714969</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.935366259029579</v>
@@ -14203,7 +14095,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.691982931748773</v>
+        <v>1.647421326099205</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.040245469452194</v>
@@ -14292,7 +14184,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.686796221949652</v>
+        <v>1.643035720253452</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.104818295765409</v>
@@ -14381,7 +14273,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.692542401893169</v>
+        <v>1.647718013125515</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.812881023978448</v>
@@ -14470,7 +14362,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.675039698013211</v>
+        <v>1.637015008483246</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.819394489025922</v>
@@ -14559,7 +14451,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.465993869470011</v>
+        <v>1.447929335579953</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.662068245474681</v>
@@ -14648,7 +14540,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.449894060974178</v>
+        <v>1.437779146361079</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.663427690945236</v>
@@ -14737,7 +14629,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.439173845223379</v>
+        <v>1.428718363736212</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.659877861290648</v>
@@ -14826,7 +14718,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.446320914858023</v>
+        <v>1.437959378882325</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.662938309831219</v>
@@ -14915,7 +14807,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.462998331169577</v>
+        <v>1.455543941861115</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.677044721267196</v>
@@ -15004,7 +14896,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.493828049670406</v>
+        <v>1.497309444153277</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.735001746563458</v>
@@ -15093,7 +14985,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.494070254869715</v>
+        <v>1.502362873400185</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.746818828711248</v>
@@ -15182,7 +15074,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.488413574004916</v>
+        <v>1.494772660992399</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.742287513549542</v>
@@ -15271,7 +15163,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.490101107758804</v>
+        <v>1.501041162420121</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.725151341069888</v>
@@ -15360,7 +15252,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.487734434832221</v>
+        <v>1.498472140290179</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.733725085682868</v>
@@ -15449,7 +15341,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.458978636865792</v>
+        <v>1.470478319888956</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.752463087428945</v>
@@ -15538,7 +15430,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.452837058403977</v>
+        <v>1.464926019608583</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.757695649232048</v>
@@ -15627,7 +15519,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.448270926061483</v>
+        <v>1.457983735226718</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.756647218033626</v>
@@ -15716,7 +15608,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.450010153273207</v>
+        <v>1.462692741296657</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.768098665081444</v>
@@ -15805,7 +15697,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.449985016403534</v>
+        <v>1.456382530166107</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.720642604519572</v>
@@ -15894,7 +15786,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.584623396170984</v>
+        <v>1.585994783064936</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.36396991664706</v>
@@ -15983,7 +15875,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.599727440308913</v>
+        <v>1.600372702585279</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.538290101211663</v>
@@ -16072,7 +15964,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.605147206474823</v>
+        <v>1.605658987271021</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.553869792629024</v>
@@ -16161,7 +16053,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.595405007873762</v>
+        <v>1.593886995256775</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.521937802636586</v>
@@ -16447,7 +16339,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.729782235481519</v>
+        <v>1.710112359060419</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.645955898131145</v>
@@ -16536,7 +16428,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.739931568968032</v>
+        <v>1.716893576971921</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.625271859019936</v>
@@ -16625,7 +16517,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.736625608672647</v>
+        <v>1.712535131848174</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.462717064673127</v>
@@ -16714,7 +16606,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.733844068791316</v>
+        <v>1.706731304933283</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.624595171882749</v>
@@ -16803,7 +16695,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.742482663839324</v>
+        <v>1.703943718661756</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.831828147459543</v>
@@ -16892,7 +16784,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.754213309054824</v>
+        <v>1.705863652217966</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.098287905773738</v>
@@ -16981,7 +16873,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.758624635760486</v>
+        <v>1.711574942503769</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.245785372704316</v>
@@ -17070,7 +16962,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.742024879491726</v>
+        <v>1.7065767457538</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.494015597949578</v>
@@ -17159,7 +17051,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.748275679819239</v>
+        <v>1.705091604093628</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.011043688900999</v>
@@ -17248,7 +17140,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.741601130599577</v>
+        <v>1.688340980837056</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.211871792120609</v>
@@ -17337,7 +17229,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.746704544556043</v>
+        <v>1.686450972004035</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.821941591472176</v>
@@ -17426,7 +17318,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.747707339618398</v>
+        <v>1.688949013969818</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.028159729482185</v>
@@ -17515,7 +17407,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.730268423627944</v>
+        <v>1.669081824515546</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.655248761129939</v>
@@ -17604,7 +17496,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.743872265954888</v>
+        <v>1.687208075769658</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.391806047006269</v>
@@ -17693,7 +17585,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.741238142789414</v>
+        <v>1.683806946546671</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.465813440742782</v>
@@ -17782,7 +17674,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.72380428511006</v>
+        <v>1.668473427421095</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.609447636414893</v>
@@ -17871,7 +17763,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.716693572682799</v>
+        <v>1.667455385037559</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.631718053287706</v>
@@ -17960,7 +17852,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.72142688159443</v>
+        <v>1.6698712729578</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.285566196709943</v>
@@ -18049,7 +17941,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.712183980204251</v>
+        <v>1.662147940409988</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.350793155823456</v>
@@ -18138,7 +18030,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.718767128979503</v>
+        <v>1.683277552553463</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.21656160942471</v>
@@ -18227,7 +18119,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.713958535352242</v>
+        <v>1.684420715753998</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.196757443267107</v>
@@ -18316,7 +18208,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.718592450859814</v>
+        <v>1.686401561293969</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.141143909345489</v>
@@ -18405,7 +18297,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.722328914508666</v>
+        <v>1.687886345767346</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.227887258032725</v>
@@ -18494,7 +18386,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.72374027683609</v>
+        <v>1.691704880924598</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.197880267730866</v>
@@ -18583,7 +18475,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.729646862908403</v>
+        <v>1.704625032705973</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.251853759499286</v>
@@ -18672,7 +18564,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.711011378176356</v>
+        <v>1.686387095072873</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.180969803532228</v>
@@ -18761,7 +18653,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.708955394172908</v>
+        <v>1.686574816771163</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.246480416914471</v>
@@ -18850,7 +18742,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.720993723096735</v>
+        <v>1.696166900873246</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.234453944322439</v>
@@ -18939,7 +18831,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.729407182557639</v>
+        <v>1.699976965335427</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.26131461489116</v>
@@ -19028,7 +18920,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.734339772235866</v>
+        <v>1.70165862606357</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.272616478002686</v>
@@ -19117,7 +19009,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.743530011740752</v>
+        <v>1.710457341098043</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.233607429815195</v>
@@ -19206,7 +19098,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.755372279347844</v>
+        <v>1.720336874352917</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.267217754386839</v>
@@ -19295,7 +19187,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.753638865218136</v>
+        <v>1.718708725164585</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.266488789804934</v>
@@ -19384,7 +19276,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.758351333059579</v>
+        <v>1.721012310794546</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.274716315300243</v>
@@ -19473,7 +19365,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.776694241246632</v>
+        <v>1.731754980482332</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.135971108454326</v>
@@ -19562,7 +19454,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.775637018371121</v>
+        <v>1.725628608131058</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.307299614996483</v>
@@ -19651,7 +19543,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.787690420822729</v>
+        <v>1.727083820491868</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.936175723433355</v>
@@ -19740,7 +19632,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.786731151583544</v>
+        <v>1.734844139681622</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.790744605777681</v>
@@ -19829,7 +19721,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.780710071970635</v>
+        <v>1.728250494901468</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.585578097613817</v>
@@ -19918,7 +19810,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.777717298142375</v>
+        <v>1.723927969080067</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.774966883177793</v>
@@ -20007,7 +19899,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.79484087936123</v>
+        <v>1.742980024856036</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.681546585245152</v>
@@ -20096,7 +19988,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.796218846510387</v>
+        <v>1.743810244347058</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.915781498905217</v>
@@ -20185,7 +20077,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.759035294365824</v>
+        <v>1.7192216615684</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.805467715863037</v>
@@ -20274,7 +20166,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.731591994771713</v>
+        <v>1.704492603099512</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.890745895781831</v>
@@ -20363,7 +20255,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.71718658892871</v>
+        <v>1.695455314565335</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.807329200788463</v>
@@ -20452,7 +20344,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.724571591810679</v>
+        <v>1.703982132166475</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.881700269049798</v>
@@ -20541,7 +20433,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.72587779030641</v>
+        <v>1.702866883640334</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.83894824287813</v>
@@ -20630,7 +20522,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.726587611951549</v>
+        <v>1.704379864471854</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.933270859403251</v>
@@ -20719,7 +20611,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.716687584659482</v>
+        <v>1.702607998836115</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.965547795061724</v>
@@ -20808,7 +20700,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.707111221782095</v>
+        <v>1.694890376808283</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.919795225373446</v>
@@ -20897,7 +20789,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.712588700322816</v>
+        <v>1.700552855041622</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.931437396183426</v>
@@ -20986,7 +20878,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.73348979327433</v>
+        <v>1.715089226566963</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.031244827114861</v>
@@ -21075,7 +20967,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.739592537288797</v>
+        <v>1.715608627596481</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.667768383843195</v>
@@ -21164,7 +21056,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.739906143414852</v>
+        <v>1.713023943189343</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.849133168576862</v>
@@ -21253,7 +21145,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.725140744755328</v>
+        <v>1.704182291259973</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.895395861452809</v>
@@ -21342,7 +21234,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.729182033146627</v>
+        <v>1.704226247729295</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.94019155118064</v>
@@ -21431,7 +21323,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.722378840483296</v>
+        <v>1.696460577600044</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.881764833617484</v>
@@ -21520,7 +21412,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.744135596007564</v>
+        <v>1.708269796244175</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.922803168896846</v>
@@ -21609,7 +21501,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.752732578041147</v>
+        <v>1.713775842667405</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.916944477564487</v>
@@ -21698,7 +21590,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.687126606671181</v>
+        <v>1.660454421378843</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.438549484019157</v>
@@ -21787,7 +21679,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.683828755112342</v>
+        <v>1.654020845170024</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.43843668884948</v>
@@ -22073,7 +21965,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.676633999505347</v>
+        <v>1.646326616588019</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.238149726356188</v>
@@ -22162,7 +22054,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.696991841496461</v>
+        <v>1.659767048512506</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.300474139276215</v>
@@ -22251,7 +22143,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.699067969423547</v>
+        <v>1.657994339248764</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.21426490969224</v>
@@ -22340,7 +22232,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.702848077098095</v>
+        <v>1.658794918442627</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.157991992804472</v>
@@ -22429,7 +22321,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.778372087460815</v>
+        <v>1.710116545122528</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.507705593339169</v>
@@ -22518,7 +22410,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.802055090495257</v>
+        <v>1.727017602983263</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.02087002272939</v>
@@ -22607,7 +22499,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.809163277351926</v>
+        <v>1.728638753076841</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.559051521148739</v>
@@ -22696,7 +22588,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.789351214873752</v>
+        <v>1.710891771663225</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.524688558002976</v>
@@ -22785,7 +22677,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.786040868154754</v>
+        <v>1.709540387810418</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.898197136950696</v>
@@ -22874,7 +22766,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.775556589889561</v>
+        <v>1.699593355615493</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.87957703781356</v>
@@ -22963,7 +22855,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.751969957290999</v>
+        <v>1.683008993161037</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.622387217584235</v>
@@ -23052,7 +22944,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.743850702993506</v>
+        <v>1.683091385295268</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.676754871757085</v>
@@ -23141,7 +23033,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.724073322257997</v>
+        <v>1.670797136329106</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.745041494612529</v>
@@ -23230,7 +23122,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.737634734619832</v>
+        <v>1.686807628763709</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.731673375808996</v>
@@ -23319,7 +23211,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.735152060246888</v>
+        <v>1.686272910806904</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.61166564500022</v>
@@ -23408,7 +23300,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.727018397272686</v>
+        <v>1.677994163175403</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.686781855303184</v>
@@ -23497,7 +23389,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.708571782882799</v>
+        <v>1.664291573393699</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.600286636967582</v>
@@ -23586,7 +23478,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.701548322270339</v>
+        <v>1.65792918369541</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.621125271923033</v>
@@ -23675,7 +23567,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.695244866807941</v>
+        <v>1.654676497727101</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.798908916161924</v>
@@ -23764,7 +23656,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.604575100058148</v>
+        <v>1.587618815746437</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.045408260909093</v>
@@ -23853,7 +23745,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.568581965391186</v>
+        <v>1.567439473585588</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.047372386489671</v>
@@ -23942,7 +23834,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.576109300332019</v>
+        <v>1.582050820178507</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.085734578296828</v>
@@ -24031,7 +23923,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.580329440519028</v>
+        <v>1.583154644190742</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.093334972143094</v>
@@ -24120,7 +24012,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.591751831494792</v>
+        <v>1.59272871438745</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.107335370472751</v>
@@ -24209,7 +24101,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.590575187107066</v>
+        <v>1.590705670232266</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.0694902056267</v>
@@ -24298,7 +24190,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.603108751398151</v>
+        <v>1.60045177374668</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.121377124104304</v>
@@ -24387,7 +24279,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.603312369612055</v>
+        <v>1.603546319404609</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.114283358123636</v>
@@ -24476,7 +24368,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.610183278616158</v>
+        <v>1.608111748387652</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.116325785370941</v>
@@ -24565,7 +24457,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.610941295769875</v>
+        <v>1.605863651359428</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.145360672595738</v>
@@ -24654,7 +24546,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.606293566991963</v>
+        <v>1.5990591691617</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.147044016449438</v>
@@ -24743,7 +24635,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.616577352275926</v>
+        <v>1.614466202029577</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.168010834577093</v>
@@ -24832,7 +24724,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.62880835061497</v>
+        <v>1.628174360104088</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.193115190788496</v>
@@ -24921,7 +24813,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.626458936881169</v>
+        <v>1.626910465448013</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.191295130471212</v>
@@ -25010,7 +24902,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.628729888376413</v>
+        <v>1.628250029799985</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.142325979730002</v>
@@ -25099,7 +24991,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.726014718632415</v>
+        <v>1.699792514028588</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.505079789504077</v>
@@ -25188,7 +25080,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.740253986728179</v>
+        <v>1.703852636544791</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.669796748888968</v>
@@ -25277,7 +25169,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.736587707158204</v>
+        <v>1.693784454316037</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.856759872991364</v>
@@ -25366,7 +25258,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.740212109465778</v>
+        <v>1.698833786863823</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.265538266617902</v>
@@ -25455,7 +25347,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.736713838399761</v>
+        <v>1.696385021276887</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.666559832303299</v>
@@ -25544,7 +25436,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.733643481806929</v>
+        <v>1.692120160993289</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.811124532288768</v>
@@ -25633,7 +25525,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.740856132138794</v>
+        <v>1.697201452796932</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.933403339398872</v>
@@ -25722,7 +25614,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.733833129012256</v>
+        <v>1.683567211918566</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.429010179131388</v>
@@ -25811,7 +25703,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.638586644277864</v>
+        <v>1.608605387977235</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.173525797222318</v>
@@ -25900,7 +25792,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.630157934450164</v>
+        <v>1.606488540733782</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.080309144206195</v>
@@ -25989,7 +25881,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.620720658322463</v>
+        <v>1.599882004146816</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.127359817815616</v>
@@ -26078,7 +25970,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.601259231797231</v>
+        <v>1.579180013302537</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.11978164536561</v>
@@ -26167,7 +26059,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.599892841804111</v>
+        <v>1.577484513172216</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.106902237309905</v>
@@ -26256,7 +26148,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.607966939307638</v>
+        <v>1.587498406103088</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.102979813187528</v>
@@ -26345,7 +26237,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.590370800851699</v>
+        <v>1.576103821233316</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.050785322788709</v>
@@ -26434,7 +26326,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.591291503460506</v>
+        <v>1.58241296635399</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.121085699758332</v>
@@ -26523,7 +26415,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.601560227283849</v>
+        <v>1.588921045556825</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.127819613765225</v>
@@ -26612,7 +26504,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.61122332071873</v>
+        <v>1.60231678767741</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.191891702454318</v>
@@ -26701,7 +26593,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.531033341553083</v>
+        <v>1.528556695706825</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.997946596496952</v>
@@ -26790,7 +26682,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.536289871620232</v>
+        <v>1.534125233393807</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.049063322202625</v>
@@ -26879,7 +26771,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.537224490001189</v>
+        <v>1.529708271138274</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.076417324313168</v>
@@ -26968,7 +26860,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.530802300017772</v>
+        <v>1.527766057790172</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.091128143501415</v>
@@ -27057,7 +26949,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.535855357267363</v>
+        <v>1.536004490131385</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.120961838301402</v>
@@ -27146,7 +27038,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.584868707083293</v>
+        <v>1.579179357547345</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.083956615779133</v>
@@ -27235,7 +27127,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.59318534530399</v>
+        <v>1.584464779534608</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.081597522435474</v>
@@ -27324,7 +27216,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.600317655121179</v>
+        <v>1.58741493240586</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.073872502524665</v>
@@ -27413,7 +27305,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.614858709863426</v>
+        <v>1.604930172186672</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.10138007623083</v>
@@ -27699,7 +27591,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.575015924731403</v>
+        <v>1.551979835074359</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.556545128540673</v>
@@ -27788,7 +27680,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.591424327779063</v>
+        <v>1.565067649264194</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.589453277167975</v>
@@ -27877,7 +27769,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.592964060001636</v>
+        <v>1.559449049426301</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.650736236187664</v>
@@ -27966,7 +27858,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.587653610213572</v>
+        <v>1.548707634699118</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.675340018082941</v>
@@ -28055,7 +27947,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.616352737769303</v>
+        <v>1.56834868540189</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.45790460642186</v>
@@ -28144,7 +28036,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.618611681097633</v>
+        <v>1.57239434849853</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.5242297693381</v>
@@ -28233,7 +28125,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.64612146840725</v>
+        <v>1.592378895043527</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.780432534645815</v>
@@ -28322,7 +28214,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.626361487798287</v>
+        <v>1.577306309222628</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.724162622065138</v>
@@ -28411,7 +28303,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.64040694831322</v>
+        <v>1.578496307429512</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.747183122427833</v>
@@ -28500,7 +28392,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.633900172435069</v>
+        <v>1.572452134455764</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.047321547324431</v>
@@ -28589,7 +28481,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.632549958433313</v>
+        <v>1.572208393345764</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.353267750799993</v>
@@ -28678,7 +28570,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.639125852561289</v>
+        <v>1.586849013426525</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.186534906856247</v>
@@ -28767,7 +28659,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.618636662981831</v>
+        <v>1.570355334095633</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.965869416234971</v>
@@ -28856,7 +28748,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.634416859570805</v>
+        <v>1.590879242249067</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.791783059538011</v>
@@ -28945,7 +28837,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.623046369805071</v>
+        <v>1.578404078163441</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.262694520435792</v>
@@ -29034,7 +28926,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.601304937095261</v>
+        <v>1.56181244133194</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.202814996769424</v>
@@ -29123,7 +29015,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.585694496648674</v>
+        <v>1.553110753522466</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.135521901948269</v>
@@ -29212,7 +29104,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.591795372138579</v>
+        <v>1.551835369408188</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.905345829994992</v>
@@ -29301,7 +29193,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.590626156235987</v>
+        <v>1.555274970196975</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.628087294954779</v>
@@ -29390,7 +29282,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.541419180520692</v>
+        <v>1.523468488416091</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.296927593166909</v>
@@ -29479,7 +29371,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.529405302916244</v>
+        <v>1.519347537389052</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.303792657419135</v>
@@ -29568,7 +29460,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.528649525423786</v>
+        <v>1.520916285664116</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.273543082270454</v>
@@ -29657,7 +29549,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.545865641717512</v>
+        <v>1.536135436084096</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.253065482632484</v>
@@ -29746,7 +29638,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.548451205252454</v>
+        <v>1.543163383047455</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.3484223897288</v>
@@ -29835,7 +29727,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.547882890114578</v>
+        <v>1.543338531938747</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.338896263737098</v>
@@ -29924,7 +29816,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.533181365288233</v>
+        <v>1.521377618487416</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.346957743724148</v>
@@ -30013,7 +29905,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.537842802076711</v>
+        <v>1.526512991805026</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.374279483985806</v>
@@ -30102,7 +29994,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.542008997585075</v>
+        <v>1.531394684481966</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.339806797388524</v>
@@ -30191,7 +30083,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.538622443423499</v>
+        <v>1.526735729958091</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.387462105577853</v>
@@ -30280,7 +30172,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.548987741379486</v>
+        <v>1.536559046494086</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.434030158639512</v>
@@ -30369,7 +30261,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.56073994634316</v>
+        <v>1.546983247112662</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.29531978740425</v>
@@ -30458,7 +30350,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.577534648048082</v>
+        <v>1.563451274752353</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.395146049244723</v>
@@ -30547,7 +30439,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.57401900787653</v>
+        <v>1.560864926034675</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.330165530588839</v>
@@ -30636,7 +30528,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.587761192177727</v>
+        <v>1.574851236348291</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.319911667522908</v>
@@ -30725,7 +30617,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.647160361330977</v>
+        <v>1.625627121097836</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.595057385886979</v>
@@ -30814,7 +30706,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.651745704708708</v>
+        <v>1.624653512196929</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.939124571440409</v>
@@ -30903,7 +30795,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.669040887413167</v>
+        <v>1.636656084521857</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.883829909790666</v>
@@ -30992,7 +30884,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.667472242613172</v>
+        <v>1.638379982614401</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.007215041559093</v>
@@ -31081,7 +30973,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.685393121459629</v>
+        <v>1.649065044458862</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.771084307313887</v>
@@ -31170,7 +31062,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.687625175269422</v>
+        <v>1.653735153663992</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.513862276771763</v>
@@ -31259,7 +31151,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.70716597971829</v>
+        <v>1.681588181727427</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.541458464765347</v>
@@ -31348,7 +31240,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.699244715656395</v>
+        <v>1.67098875159523</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.445252133155973</v>
@@ -31437,7 +31329,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.620955572648114</v>
+        <v>1.602243747045064</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.188205296896111</v>
@@ -31526,7 +31418,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.579105031259792</v>
+        <v>1.56883030863195</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.231910890898613</v>
@@ -31615,7 +31507,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.562986985652394</v>
+        <v>1.558002327688687</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.239176634226523</v>
@@ -31704,7 +31596,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.580817536674389</v>
+        <v>1.579247709838706</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.251982203315993</v>
@@ -31793,7 +31685,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.589902229979334</v>
+        <v>1.587171563545596</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.283872212169992</v>
@@ -31882,7 +31774,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.599830610818898</v>
+        <v>1.610833974686883</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.262046557771387</v>
@@ -31971,7 +31863,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.577115043549322</v>
+        <v>1.593002811685497</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.277228106921741</v>
@@ -32060,7 +31952,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.567365193558873</v>
+        <v>1.584955153748848</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.268143534011229</v>
@@ -32149,7 +32041,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.567106293582281</v>
+        <v>1.589745172005116</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.289072446545009</v>
@@ -32238,7 +32130,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.563848506978033</v>
+        <v>1.585505767251593</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.312711111751424</v>
@@ -32327,7 +32219,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.525368875637908</v>
+        <v>1.551306752294209</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.260409978400037</v>
@@ -32416,7 +32308,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.511987875933036</v>
+        <v>1.538371130531317</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.329469621194405</v>
@@ -32505,7 +32397,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.501078787184012</v>
+        <v>1.528334479861905</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.343981585447917</v>
@@ -32594,7 +32486,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.493441338718411</v>
+        <v>1.522484148492639</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.333740283370956</v>
@@ -32683,7 +32575,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.48942151536027</v>
+        <v>1.512680576872307</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.369402091924721</v>
@@ -32772,7 +32664,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.539015269395523</v>
+        <v>1.562051623281763</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.531966987937165</v>
@@ -32861,7 +32753,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.577183620361762</v>
+        <v>1.596264278957547</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.624782477007461</v>
@@ -32950,7 +32842,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.581399799305209</v>
+        <v>1.603097931666433</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.637962693765089</v>
@@ -33039,7 +32931,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.569441910268757</v>
+        <v>1.586197844366956</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.578633438647322</v>
@@ -33325,7 +33217,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.485958794155302</v>
+        <v>1.503355311206885</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.19960830133813</v>
@@ -33414,7 +33306,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.526225614836274</v>
+        <v>1.543790991889843</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.225683803961044</v>
@@ -33503,7 +33395,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.517483732658505</v>
+        <v>1.52844336724026</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.151097361765972</v>
@@ -33592,7 +33484,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.542558143501492</v>
+        <v>1.558296849252606</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.128648886536102</v>
@@ -33681,7 +33573,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.567353840974103</v>
+        <v>1.57682888261925</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.277400086060067</v>
@@ -33770,7 +33662,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.590832902030467</v>
+        <v>1.598030080907663</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.743179907377914</v>
@@ -33859,7 +33751,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.587373810147513</v>
+        <v>1.597265981300775</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.658574801216651</v>
@@ -33948,7 +33840,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.539060630704568</v>
+        <v>1.547553865902175</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.623897302940724</v>
@@ -34037,7 +33929,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.580977344618031</v>
+        <v>1.587364607304175</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.292115000327493</v>
@@ -34126,7 +34018,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.611117764134901</v>
+        <v>1.618329581005719</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.678713326244284</v>
@@ -34215,7 +34107,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.555060886871598</v>
+        <v>1.56315323958756</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.528797388989902</v>
@@ -34304,7 +34196,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.549084774207484</v>
+        <v>1.555622603672316</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.482672806001696</v>
@@ -34393,7 +34285,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.526187490570887</v>
+        <v>1.526792213215223</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.463963182843463</v>
@@ -34482,7 +34374,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.53695320585965</v>
+        <v>1.538538031592295</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.383945419168063</v>
@@ -34571,7 +34463,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.495451027848387</v>
+        <v>1.499783687150946</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.354816072997207</v>
@@ -34660,7 +34552,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.480726995439406</v>
+        <v>1.486582909669151</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.37574107844938</v>
@@ -34749,7 +34641,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.454216841616872</v>
+        <v>1.457269570751851</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.405622216352477</v>
@@ -34838,7 +34730,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.450842915784235</v>
+        <v>1.451496147602393</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.278628363696451</v>
@@ -34927,7 +34819,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.43427511872757</v>
+        <v>1.42822057355267</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.205545695714707</v>
@@ -35016,7 +34908,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.394091396940466</v>
+        <v>1.395254017676927</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.232856584308272</v>
@@ -35105,7 +34997,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.347484634621121</v>
+        <v>1.352808886637652</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.205897481806108</v>
@@ -35194,7 +35086,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.322189588421931</v>
+        <v>1.323612614286033</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.085526570846362</v>
@@ -35283,7 +35175,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.346410040154657</v>
+        <v>1.349817565421722</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.191320966332186</v>
@@ -35372,7 +35264,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.360289847063594</v>
+        <v>1.369390294565953</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.084366763251124</v>
@@ -35461,7 +35353,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.35288123495843</v>
+        <v>1.35566454075393</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.075313481434625</v>
@@ -35550,7 +35442,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.350579101144067</v>
+        <v>1.357888887119986</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.178776500475745</v>
@@ -35639,7 +35531,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.337135490789192</v>
+        <v>1.345297987487953</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.175373375891206</v>
@@ -35728,7 +35620,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.343236713845404</v>
+        <v>1.352757947684123</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.190061910167131</v>
@@ -35817,7 +35709,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.347280634792307</v>
+        <v>1.360060233114286</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.221086165957987</v>
@@ -35906,7 +35798,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.371193216685688</v>
+        <v>1.377402124515012</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.155647901153605</v>
@@ -35995,7 +35887,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.386275159078056</v>
+        <v>1.392614866255139</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.24086662146951</v>
@@ -36084,7 +35976,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.410285590328337</v>
+        <v>1.422852449237041</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.276984587638178</v>
@@ -36173,7 +36065,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.400818713723797</v>
+        <v>1.413764164733521</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.211716067784022</v>
@@ -36262,7 +36154,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.407366698007269</v>
+        <v>1.421722766492372</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.02892961197763</v>
@@ -36351,7 +36243,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.433048343395024</v>
+        <v>1.439771962285886</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.405650174375467</v>
@@ -36440,7 +36332,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.450432636742272</v>
+        <v>1.456960822852835</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.267482826702852</v>
@@ -36529,7 +36421,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.452546105125102</v>
+        <v>1.459019604651716</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.470361362096531</v>
@@ -36618,7 +36510,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.452072068378667</v>
+        <v>1.458338889567928</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.552050418804441</v>
@@ -36707,7 +36599,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.440717821895093</v>
+        <v>1.440058863990744</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.431816335548536</v>
@@ -36796,7 +36688,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.450261476963863</v>
+        <v>1.457218727626169</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.394429934356658</v>
@@ -36885,7 +36777,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.475161850145237</v>
+        <v>1.476753494215472</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.354747804442999</v>
@@ -36974,7 +36866,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.448831500676282</v>
+        <v>1.45463176120464</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.388523404369527</v>
@@ -37063,7 +36955,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.430864305955993</v>
+        <v>1.433336878286667</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.549572716183349</v>
@@ -37152,7 +37044,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.415555619322028</v>
+        <v>1.417229763590094</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.579798752005614</v>
@@ -37241,7 +37133,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.411452036696633</v>
+        <v>1.419460209748936</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.552788548459609</v>
@@ -37330,7 +37222,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.396979285148656</v>
+        <v>1.402241896948598</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.428925466103353</v>
@@ -37419,7 +37311,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.380782145816668</v>
+        <v>1.381925061644975</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.358512313372799</v>
@@ -37508,7 +37400,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.396665279949326</v>
+        <v>1.398618694395484</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.413526207102074</v>
@@ -37597,7 +37489,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.403726065288931</v>
+        <v>1.40345848086431</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.350940706960142</v>
@@ -37686,7 +37578,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.377458840397291</v>
+        <v>1.384048799864172</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.172009712311094</v>
@@ -37775,7 +37667,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.379798336736644</v>
+        <v>1.380161510679874</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.243870462831066</v>
@@ -37864,7 +37756,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.421530088913689</v>
+        <v>1.423401373833022</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.281197557578705</v>
@@ -37953,7 +37845,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.393581097911066</v>
+        <v>1.398904787616836</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.195592030688743</v>
@@ -38042,7 +37934,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.406945026430628</v>
+        <v>1.403954663773319</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.111032463851564</v>
@@ -38131,7 +38023,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.359662562939017</v>
+        <v>1.366910376640637</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.14408057377131</v>
@@ -38220,7 +38112,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.352907991988156</v>
+        <v>1.359458427618734</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.125249025598444</v>
@@ -38309,7 +38201,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.344346286608226</v>
+        <v>1.35373148959202</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.151529358245889</v>
@@ -38398,7 +38290,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.3441952244935</v>
+        <v>1.357227468386468</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.137765235544434</v>
@@ -38487,7 +38379,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.346844265690168</v>
+        <v>1.358298230675476</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.193654639129917</v>
@@ -38576,7 +38468,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.349650973974553</v>
+        <v>1.3621636740741</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.266587549878635</v>
@@ -38665,7 +38557,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.358060625159615</v>
+        <v>1.372821856213871</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.247317859254939</v>
